--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4042236.427099405</v>
+        <v>4038140.785594641</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>1.38860217704409</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>170.8351153795232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>60.58827828646805</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>67.22331801800679</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>152.3903014912413</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>82.84713108496618</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,13 +1065,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>17.34628571251677</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>76.92035246272683</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>232.8521789952004</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1186,13 +1186,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>165.1217134651684</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187854</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.94435783112388</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>69.83388910785328</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>87.2147151485299</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,16 +2295,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>142.3575218158273</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>212.89882061057</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>1.839588425939337</v>
+        <v>19.72264368952156</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>90.69284018412978</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>255.5654575977362</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428269</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>80.08971311158706</v>
       </c>
       <c r="E37" t="n">
-        <v>18.70843787977265</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>46.86766651429451</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>123.7971820797027</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1330.099343395678</v>
+        <v>863.4584982637874</v>
       </c>
       <c r="C2" t="n">
-        <v>1330.099343395678</v>
+        <v>494.4959813233757</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4327,7 +4327,7 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4336,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2560.936699938494</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>2307.355639202674</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.894479532451</v>
+        <v>1976.292751859103</v>
       </c>
       <c r="W2" t="n">
-        <v>1876.125824262336</v>
+        <v>1623.524096588989</v>
       </c>
       <c r="X2" t="n">
-        <v>1502.660066001257</v>
+        <v>1250.058338327909</v>
       </c>
       <c r="Y2" t="n">
-        <v>1330.099343395678</v>
+        <v>1250.058338327909</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735143</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049862</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>575.2365734374705</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>575.2365734374705</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>575.2365734374705</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>427.3234798550774</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>280.433532357167</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>112.4470676654456</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4497,7 +4497,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074498</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="V4" t="n">
-        <v>1092.643294372449</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="W4" t="n">
-        <v>803.2261243354878</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="X4" t="n">
-        <v>575.2365734374705</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="Y4" t="n">
-        <v>575.2365734374705</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1842.294639468328</v>
+        <v>1321.26637541962</v>
       </c>
       <c r="C5" t="n">
-        <v>1688.365042002428</v>
+        <v>952.303858479208</v>
       </c>
       <c r="D5" t="n">
-        <v>1330.099343395678</v>
+        <v>594.0381598724575</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974333</v>
+        <v>208.2499072742133</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078258</v>
+        <v>201.3044065250098</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4573,10 +4573,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4597,22 +4597,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>2228.89447953245</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X5" t="n">
-        <v>2228.89447953245</v>
+        <v>1711.405707395431</v>
       </c>
       <c r="Y5" t="n">
-        <v>2228.89447953245</v>
+        <v>1321.26637541962</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735142</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049859</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>455.1316662333386</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C7" t="n">
-        <v>455.1316662333386</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D7" t="n">
-        <v>305.0150268210028</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E7" t="n">
-        <v>157.1019332386097</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386097</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386097</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
         <v>157.1019332386097</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1516.341212870366</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1227.222875374204</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>972.5383871683166</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>683.1212171313559</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X7" t="n">
-        <v>455.1316662333386</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="Y7" t="n">
-        <v>455.1316662333386</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.62132134232</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>758.7856865549913</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>758.7856865549913</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>758.7856865549913</v>
       </c>
       <c r="F8" t="n">
         <v>523.5814653477182</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3048.52554357549</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2794.995066849327</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>2794.995066849327</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2442.226411579212</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X8" t="n">
-        <v>2068.760653318132</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y8" t="n">
-        <v>1678.62132134232</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="9">
@@ -4874,19 +4874,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,19 +5035,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5311,19 +5311,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5354,7 +5354,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5366,19 +5366,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793924</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511906</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5439,10 +5439,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5512,31 +5512,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,10 +5551,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589157</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1021.293348608258</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>852.3571656803509</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>702.2405262680152</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>1202.941813438498</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5743,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511906</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1350.99156482496</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,31 +6217,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,7 +6253,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1936.428221820188</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="29">
@@ -6460,22 +6460,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,25 +6484,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591808</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>727.9786782557277</v>
+        <v>641.8461362382113</v>
       </c>
       <c r="C31" t="n">
-        <v>559.0424953278208</v>
+        <v>472.9099533103044</v>
       </c>
       <c r="D31" t="n">
-        <v>408.925855915485</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2105.453616008648</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1816.378389352846</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1561.693901146959</v>
       </c>
       <c r="W31" t="n">
-        <v>1358.409273127515</v>
+        <v>1272.276731109999</v>
       </c>
       <c r="X31" t="n">
-        <v>1130.419722229497</v>
+        <v>1044.287180211981</v>
       </c>
       <c r="Y31" t="n">
-        <v>909.6271430859674</v>
+        <v>823.4946010684511</v>
       </c>
     </row>
     <row r="32">
@@ -6682,40 +6682,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>2588.787486630498</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>2588.787486630498</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>2588.787486630498</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>2421.591387345378</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7140,7 +7140,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="38">
@@ -7162,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C40" t="n">
-        <v>580.8993044876688</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D40" t="n">
-        <v>430.7826650753331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>282.8695714929399</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="41">
@@ -7399,19 +7399,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7490,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>542.9134462654469</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578602</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7727,19 +7727,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>671.2000270096659</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
         <v>1896.176478190825</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780638</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515141</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>138.9393975111051</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>265.0304328515139</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.6402955209709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>76.60007353871589</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>61.40075786968245</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>144.1654765207637</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>73.624177726021</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>250.2980548978887</v>
+        <v>232.4149996343064</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>126.7126101431585</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>30.95754073885479</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219412</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="E37" t="n">
-        <v>127.7255247667965</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>0.5874149221290565</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>98.55338150863673</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>21.62386594322854</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642835</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.599690006</v>
       </c>
       <c r="I2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="J2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="K2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="M2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="N2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="O2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>807146.5996900061</v>
-      </c>
-      <c r="M2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="N2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="O2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.5996900063</v>
       </c>
     </row>
     <row r="3">
@@ -26371,34 +26371,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.054705732759963e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.427816045932183e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081908</v>
+        <v>48293.97000819066</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309556</v>
+        <v>87914.29116309562</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744244</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8727.256391744337</v>
+      </c>
+      <c r="G4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>8727.256391744282</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8727.256391744284</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
+        <v>8727.25639174432</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8727.256391744242</v>
+      </c>
+      <c r="L4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744337</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8727.256391744344</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744284</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-522169.9231284643</v>
+        <v>-522169.9231284644</v>
       </c>
       <c r="C6" t="n">
         <v>592581.8604474557</v>
       </c>
       <c r="D6" t="n">
-        <v>432566.3976994564</v>
+        <v>432566.3976994567</v>
       </c>
       <c r="E6" t="n">
-        <v>371884.3516669997</v>
+        <v>371536.972412643</v>
       </c>
       <c r="F6" t="n">
-        <v>697296.8134743548</v>
+        <v>696949.4342199976</v>
       </c>
       <c r="G6" t="n">
-        <v>697296.8134743549</v>
+        <v>696949.4342199978</v>
       </c>
       <c r="H6" t="n">
-        <v>697296.813474355</v>
+        <v>696949.4342199977</v>
       </c>
       <c r="I6" t="n">
-        <v>697296.8134743548</v>
+        <v>696949.4342199981</v>
       </c>
       <c r="J6" t="n">
-        <v>529691.6356643725</v>
+        <v>529344.2564100155</v>
       </c>
       <c r="K6" t="n">
-        <v>697296.8134743548</v>
+        <v>696949.4342199978</v>
       </c>
       <c r="L6" t="n">
-        <v>649002.843466164</v>
+        <v>648655.4642118074</v>
       </c>
       <c r="M6" t="n">
-        <v>612241.785538843</v>
+        <v>611894.4062844862</v>
       </c>
       <c r="N6" t="n">
-        <v>697296.8134743546</v>
+        <v>696949.434219998</v>
       </c>
       <c r="O6" t="n">
-        <v>697296.8134743549</v>
+        <v>696949.4342199978</v>
       </c>
       <c r="P6" t="n">
-        <v>697296.813474355</v>
+        <v>696949.4342199978</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175393</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26810,13 +26810,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,16 +26968,16 @@
         <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>205.2695828031897</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>215.4028232765304</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>86.6632308686608</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>153.5253779792051</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>212.8825902797662</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>328.7005716879878</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>203.4024102846952</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>148.7893029263103</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>174.0238667465111</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>38.79625667445174</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-5.780852451252876e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -30048,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30288,7 +30288,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -31047,28 +31047,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31083,7 +31083,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31132,10 +31132,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31144,7 +31144,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,37 +32077,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>332.169238832108</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>322.6999460717718</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>370.9642309107746</v>
+        <v>301.6445156724557</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,31 +33259,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,31 +33496,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>574.6535388222619</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>399.0581126127094</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33976,10 +33976,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34128,13 +34128,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34210,13 +34210,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L42" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34231,7 +34231,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34447,13 +34447,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>233.3139244897921</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560635</v>
+        <v>355.3309544215487</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34795,13 +34795,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750464</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34865,7 +34865,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>436.6197581489553</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
@@ -35032,7 +35032,7 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>514.7099619750462</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308546</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>477.9853321427316</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>189.5729943876636</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>191.3582339884385</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>228.3679864663302</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>432.0572943778175</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>265.0837051983791</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,13 +37776,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L42" t="n">
-        <v>302.474889585677</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>94.75954470991793</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4038140.785594641</v>
+        <v>4039901.315897426</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7136767.654957235</v>
+        <v>7136767.654957236</v>
       </c>
     </row>
     <row r="11">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.38860217704409</v>
+        <v>1.38860217704454</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>82.84713108496618</v>
+        <v>82.84713108496615</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>76.92035246272683</v>
+        <v>76.92035246272637</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>232.8521789952004</v>
+        <v>232.8521789952008</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>1.79977260571614</v>
+        <v>83.06560892428256</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187854</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,10 +1666,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>87.2147151485299</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576153</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2721,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>100.5858322992699</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>19.72264368952156</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784699</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2958,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>90.69284018412978</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>156.5238857907026</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>80.08971311158706</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>130.3963959210117</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.0280580960833</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3903,16 +3903,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>93.4044447618827</v>
+        <v>156.5238857907025</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3951,10 +3951,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>59.31005804030049</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>863.4584982637874</v>
+        <v>863.4584982637875</v>
       </c>
       <c r="C2" t="n">
-        <v>494.4959813233757</v>
+        <v>494.4959813233758</v>
       </c>
       <c r="D2" t="n">
         <v>136.2302827166252</v>
@@ -4318,7 +4318,7 @@
         <v>136.2302827166252</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674217</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4327,19 +4327,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143493</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L3" t="n">
-        <v>884.908532145821</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105041</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701986</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878148</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4482,22 +4482,22 @@
         <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4564,16 +4564,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4622,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605189</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
         <v>1117.223096727985</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4719,31 +4719,31 @@
         <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4764,7 +4764,7 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037537</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X7" t="n">
         <v>1269.331624317611</v>
@@ -4783,13 +4783,13 @@
         <v>1127.748203495403</v>
       </c>
       <c r="C8" t="n">
-        <v>758.7856865549913</v>
+        <v>758.7856865549918</v>
       </c>
       <c r="D8" t="n">
-        <v>758.7856865549913</v>
+        <v>758.7856865549918</v>
       </c>
       <c r="E8" t="n">
-        <v>758.7856865549913</v>
+        <v>758.7856865549918</v>
       </c>
       <c r="F8" t="n">
         <v>523.5814653477182</v>
@@ -4801,10 +4801,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4816,37 +4816,37 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
         <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796416</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535336</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y8" t="n">
         <v>1514.348043559525</v>
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4944,22 +4944,22 @@
         <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5020,58 +5020,58 @@
         <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466574</v>
@@ -5080,7 +5080,7 @@
         <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
         <v>3094.51519859181</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143764</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,52 +5503,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.07903472198</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.843151638089</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101821</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611859</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683287</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5989,19 +5989,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,19 +6241,19 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1851.318825887154</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1561.901655850193</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1333.912104952176</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>1113.119525808646</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6457,55 +6457,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>641.8461362382113</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C31" t="n">
-        <v>472.9099533103044</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>322.7933138979687</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979687</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2105.453616008648</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U31" t="n">
-        <v>1816.378389352846</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V31" t="n">
-        <v>1561.693901146959</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W31" t="n">
-        <v>1272.276731109999</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X31" t="n">
-        <v>1044.287180211981</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y31" t="n">
-        <v>823.4946010684511</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,7 +6928,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>734.6461798836013</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C37" t="n">
-        <v>565.7099969556945</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.2707707770319</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>634.334587849125</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
         <v>484.8112968429803</v>
@@ -7371,13 +7371,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648819</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.711814750802</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.9192356072716</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>1089.57599612053</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>920.6398131926233</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>770.5231737802875</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597619</v>
+        <v>622.6100801978944</v>
       </c>
       <c r="F43" t="n">
-        <v>411.9631215597619</v>
+        <v>475.720132699984</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578602</v>
@@ -7599,22 +7599,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1720.006590992317</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>1271.22446095077</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.8125159357153</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780638</v>
+        <v>168.7434581780645</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.9393975111051</v>
+        <v>138.9393975111056</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.4949402405078</v>
+        <v>57.2291039219413</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>61.40075786968245</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>232.4149996343064</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>126.7126101431585</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>129.6605885985416</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.5257599066253</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>15.02465210191957</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5874149221290565</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>72.11969353038614</v>
+        <v>9.000252501566308</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>80.9846548059234</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>613289.2213126647</v>
+        <v>613289.2213126648</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>613289.2213126647</v>
+        <v>613289.2213126648</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>613289.2213126647</v>
+        <v>613289.2213126648</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="F2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="G2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="F2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>807146.5996900061</v>
-      </c>
-      <c r="H2" t="n">
-        <v>807146.599690006</v>
       </c>
       <c r="I2" t="n">
         <v>807146.5996900062</v>
@@ -26340,22 +26340,22 @@
         <v>807146.5996900063</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="L2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="M2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="N2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
     </row>
     <row r="3">
@@ -26371,34 +26371,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
-        <v>2.054705732759963e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>1.427816045932183e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819066</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309562</v>
+        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744244</v>
+        <v>8727.256391744202</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744337</v>
+        <v>8727.256391744275</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744279</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
@@ -26441,10 +26441,10 @@
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.25639174432</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744344</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744282</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-522169.9231284644</v>
+        <v>-522169.9231284641</v>
       </c>
       <c r="C6" t="n">
         <v>592581.8604474557</v>
       </c>
       <c r="D6" t="n">
-        <v>432566.3976994567</v>
+        <v>432566.3976994564</v>
       </c>
       <c r="E6" t="n">
-        <v>371536.972412643</v>
+        <v>371849.6137415635</v>
       </c>
       <c r="F6" t="n">
-        <v>696949.4342199976</v>
+        <v>697262.0755489192</v>
       </c>
       <c r="G6" t="n">
-        <v>696949.4342199978</v>
+        <v>697262.0755489192</v>
       </c>
       <c r="H6" t="n">
-        <v>696949.4342199977</v>
+        <v>697262.0755489192</v>
       </c>
       <c r="I6" t="n">
-        <v>696949.4342199981</v>
+        <v>697262.0755489194</v>
       </c>
       <c r="J6" t="n">
-        <v>529344.2564100155</v>
+        <v>529656.8977389368</v>
       </c>
       <c r="K6" t="n">
-        <v>696949.4342199978</v>
+        <v>697262.0755489194</v>
       </c>
       <c r="L6" t="n">
-        <v>648655.4642118074</v>
+        <v>648968.1055407285</v>
       </c>
       <c r="M6" t="n">
-        <v>611894.4062844862</v>
+        <v>612207.0476134075</v>
       </c>
       <c r="N6" t="n">
-        <v>696949.434219998</v>
+        <v>697262.0755489193</v>
       </c>
       <c r="O6" t="n">
-        <v>696949.4342199978</v>
+        <v>697262.0755489193</v>
       </c>
       <c r="P6" t="n">
-        <v>696949.4342199978</v>
+        <v>697262.0755489193</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26919,13 +26919,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26934,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,13 +27156,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>205.2695828031897</v>
+        <v>205.2695828031892</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>148.7893029263103</v>
+        <v>148.7893029263108</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>174.0238667465111</v>
+        <v>174.0238667465106</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -28089,16 +28089,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-5.780852451252876e-13</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-1.285915741704982e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,19 +28140,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28386,10 +28386,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>446.0127311990634</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172136</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,13 +32311,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32326,13 +32326,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,7 +32548,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,7 +32557,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>242.2322097768135</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>301.6445156724557</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,19 +34780,19 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215487</v>
+        <v>355.3309544215493</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34801,7 +34801,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>436.6197581489553</v>
+        <v>436.6197581489557</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>303.878697277045</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121327</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373395</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>35.97859357997653</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35974,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>103.6778299969394</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>159.0482712280113</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
